--- a/backend/register_waiting_list.xlsx
+++ b/backend/register_waiting_list.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,6 +519,66 @@
         <v>45108.51288194444</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>newnew</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>5oJGw1</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>45108.52700231481</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ali</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>asdsdsd</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>tIEgna</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>45108.54137731482</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ali2</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>asdsdsd</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>g0bIEl</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>45108.55510416667</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/backend/register_waiting_list.xlsx
+++ b/backend/register_waiting_list.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -579,6 +579,26 @@
         <v>45108.55510416667</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>temp14</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>songmx6188@gmail.com</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>HI81VN</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>45108.52020833334</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
